--- a/outputs-HGR-r202-archive/g__CAG-180.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-180.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,55 +479,55 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34600.fa</t>
+          <t>even_MAG-GUT51267.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001064108053464341</v>
+        <v>0.01931567523020489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001171719487884993</v>
+        <v>0.980683719896366</v>
       </c>
       <c r="D2" t="n">
-        <v>5.798636605150099e-07</v>
+        <v>6.048734067139242e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9988181401340867</v>
+        <v>2.219833389003811e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9988181401340867</v>
+        <v>0.980683719896366</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>s__CAG-180 sp900545625</t>
+          <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__CAG-180 sp900545625</t>
+          <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51267.fa</t>
+          <t>even_MAG-GUT8428.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01931567523020489</v>
+        <v>0.00880269170318076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.980683719896366</v>
+        <v>0.99119709646113</v>
       </c>
       <c r="D3" t="n">
-        <v>6.048734067139242e-07</v>
+        <v>2.118356671283057e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>2.219833389003811e-14</v>
+        <v>2.219817308762278e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.980683719896366</v>
+        <v>0.99119709646113</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -535,326 +535,6 @@
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT51274.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.09010707559337643</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9098282920224166</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.463238409362716e-05</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.133604239729855e-13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.9098282920224166</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT51297.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.02163177362151069</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9783669322344187</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.29414404820856e-06</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.219832558602159e-14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9783669322344187</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT54681.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9522494731116661</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02460138634628467</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02314914053952074</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.52862457237882e-12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9522494731116661</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp000432435</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp000432435</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58896.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.00120079189246907</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0001637460055367509</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.014566818272981e-06</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9986344475351759</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9986344475351759</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7988.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.00674450884858988</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9932547801761937</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.10975194253765e-07</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.219819228818721e-14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9932547801761937</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80007.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0001617164303985686</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0004523095192600396</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.282489651580439e-07</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9993858458013763</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9993858458013763</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82295.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0008453148355037416</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0001221295401617533</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.183045223750145e-07</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9990323373198121</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9990323373198121</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8428.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.00880269170318076</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.99119709646113</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.118356671283057e-07</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.219817308762278e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.99119709646113</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84856.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0629272964959513</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9370617014337882</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.100207022885249e-05</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.160445179333643e-14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9370617014337882</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT8521.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.04340165486766191</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9565795630549287</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.87820773645423e-05</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.482794195116864e-14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9565795630549287</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp004556705</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>s__CAG-180 sp004556705</t>
         </is>
